--- a/data/trans_orig/P57C2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>7285</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2437</v>
+        <v>2261</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19106</v>
+        <v>17014</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01322986097116244</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00442507449826959</v>
+        <v>0.004105664643583045</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03469911112559786</v>
+        <v>0.03089992049105325</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>2553</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6232</v>
+        <v>6060</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.005227303912359385</v>
+        <v>0.005227303912359384</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001275132658953579</v>
+        <v>0.001273419983328191</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01275990684062916</v>
+        <v>0.0124075480936254</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -783,19 +783,19 @@
         <v>9838</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4778</v>
+        <v>4046</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21441</v>
+        <v>20384</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.009468141702450255</v>
+        <v>0.009468141702450252</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004598375597888465</v>
+        <v>0.003893717750564117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02063514175444474</v>
+        <v>0.01961873381251056</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>11516</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6002</v>
+        <v>6500</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19513</v>
+        <v>20083</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02091544288302141</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01090014962717767</v>
+        <v>0.01180468416023026</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03543869970683231</v>
+        <v>0.03647387845059646</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -833,19 +833,19 @@
         <v>10869</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5840</v>
+        <v>5522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21752</v>
+        <v>21905</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.02225424428625659</v>
+        <v>0.02225424428625658</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01195724995521379</v>
+        <v>0.01130541663057925</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04453562594980846</v>
+        <v>0.04485030996173744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -854,19 +854,19 @@
         <v>22386</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14125</v>
+        <v>14298</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33173</v>
+        <v>35035</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02154476611040018</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01359448145054068</v>
+        <v>0.01376057993820379</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03192727246779677</v>
+        <v>0.03371878779204723</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>31492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20971</v>
+        <v>21837</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43897</v>
+        <v>44866</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05719303778635724</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03808669099559266</v>
+        <v>0.0396598469110724</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07972370688137974</v>
+        <v>0.08148262215139877</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -904,19 +904,19 @@
         <v>22865</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16000</v>
+        <v>15843</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31980</v>
+        <v>31854</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.04681490693694617</v>
+        <v>0.04681490693694616</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03275840300841897</v>
+        <v>0.03243833156040276</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06547849217862661</v>
+        <v>0.06521904954084283</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -925,19 +925,19 @@
         <v>54356</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41657</v>
+        <v>41747</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>70088</v>
+        <v>68980</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.05231464522975544</v>
+        <v>0.05231464522975543</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04009261690759001</v>
+        <v>0.04017902568821335</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0674554842655431</v>
+        <v>0.06638863892464265</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>250441</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>228822</v>
+        <v>226712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>276074</v>
+        <v>274394</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4548357349414445</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4155734650179337</v>
+        <v>0.4117413820858254</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5013898371833264</v>
+        <v>0.4983374351928366</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>326</v>
@@ -975,19 +975,19 @@
         <v>220887</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>203971</v>
+        <v>200820</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>242931</v>
+        <v>239090</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4522555145692337</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4176221369614614</v>
+        <v>0.4111695526451606</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4973898079495837</v>
+        <v>0.4895272489472867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>593</v>
@@ -996,19 +996,19 @@
         <v>471327</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>444292</v>
+        <v>437421</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>505049</v>
+        <v>502506</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4536228645276069</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.427602825535519</v>
+        <v>0.4209897718141882</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4860780012694156</v>
+        <v>0.4836300825814484</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>249885</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>225217</v>
+        <v>227614</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>274277</v>
+        <v>276423</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4538259234180145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4090255628050514</v>
+        <v>0.4133799025603374</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4981264506540577</v>
+        <v>0.5020228809587841</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>310</v>
@@ -1046,19 +1046,19 @@
         <v>231237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>209678</v>
+        <v>212591</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>249455</v>
+        <v>251159</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4734480302952043</v>
+        <v>0.4734480302952042</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.429307094340216</v>
+        <v>0.4352712464912334</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5107471356643594</v>
+        <v>0.514237566927781</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>546</v>
@@ -1067,19 +1067,19 @@
         <v>481122</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>448650</v>
+        <v>450975</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>511958</v>
+        <v>513661</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4630495824297873</v>
+        <v>0.4630495824297872</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4317975204892221</v>
+        <v>0.4340350981467783</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4927271538248937</v>
+        <v>0.4943661662639512</v>
       </c>
     </row>
     <row r="9">
@@ -1174,16 +1174,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6362</v>
+        <v>6294</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.00313190868592295</v>
+        <v>0.003131908685922949</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01316602929366826</v>
+        <v>0.01302449681477588</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1192,19 +1192,19 @@
         <v>2658</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>688</v>
+        <v>663</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6089</v>
+        <v>6563</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00628049972624154</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001624837873474661</v>
+        <v>0.001566533234815267</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01439025981573769</v>
+        <v>0.01550965603031349</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1213,19 +1213,19 @@
         <v>4171</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1599</v>
+        <v>1447</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8969</v>
+        <v>8681</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004601866702076759</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001763935814250955</v>
+        <v>0.001596387146347303</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00989622833449544</v>
+        <v>0.009578384094159488</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>8399</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3526</v>
+        <v>3431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19432</v>
+        <v>20300</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01738261084244288</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007297837969027119</v>
+        <v>0.007099375780345163</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04021350297206436</v>
+        <v>0.04200983113164431</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1263,19 +1263,19 @@
         <v>9182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5259</v>
+        <v>5469</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15103</v>
+        <v>15925</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0216988449965748</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01242768758846193</v>
+        <v>0.01292459623649466</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03569313643978946</v>
+        <v>0.03763501933928801</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -1284,19 +1284,19 @@
         <v>17581</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10516</v>
+        <v>10662</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28914</v>
+        <v>28959</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01939769724560469</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01160198196195324</v>
+        <v>0.01176364881982137</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0319016145304967</v>
+        <v>0.03195050648872919</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>24391</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16288</v>
+        <v>16762</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34726</v>
+        <v>34331</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05047602154646442</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03370720040056536</v>
+        <v>0.03468878800547687</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07186428924375074</v>
+        <v>0.07104707253627388</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -1334,19 +1334,19 @@
         <v>34820</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25486</v>
+        <v>25852</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45770</v>
+        <v>45342</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08228830034480941</v>
+        <v>0.0822883003448094</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06023090410478634</v>
+        <v>0.0610963333076462</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1081662024452535</v>
+        <v>0.1071548490063251</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>79</v>
@@ -1355,19 +1355,19 @@
         <v>59210</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>47301</v>
+        <v>46260</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>73945</v>
+        <v>72798</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06532797076214135</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05218796328645339</v>
+        <v>0.05103912485184002</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08158495755342168</v>
+        <v>0.0803190974132183</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>215759</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>195189</v>
+        <v>192713</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>238821</v>
+        <v>238703</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4465097305799334</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4039411010404979</v>
+        <v>0.3988166003897289</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4942373980626814</v>
+        <v>0.4939917061732286</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>300</v>
@@ -1405,19 +1405,19 @@
         <v>206882</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>187220</v>
+        <v>189908</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>223284</v>
+        <v>225414</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4889162798259802</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4424501979651542</v>
+        <v>0.4488031176270715</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5276793812021415</v>
+        <v>0.5327125573411298</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>531</v>
@@ -1426,19 +1426,19 @@
         <v>422640</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>394455</v>
+        <v>395306</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>450386</v>
+        <v>451792</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4663077437875618</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4352103973820214</v>
+        <v>0.4361491265171638</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4969205788153336</v>
+        <v>0.4984717605629414</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>233150</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>210392</v>
+        <v>209978</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>256316</v>
+        <v>258596</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4824997283452364</v>
+        <v>0.4824997283452363</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4354032279878496</v>
+        <v>0.4345458987646598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5304430079090764</v>
+        <v>0.5351595185661563</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>223</v>
@@ -1476,19 +1476,19 @@
         <v>169603</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>151850</v>
+        <v>152448</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>187419</v>
+        <v>187378</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4008160751063939</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3588618693536395</v>
+        <v>0.3602752497797779</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4429216360810628</v>
+        <v>0.4428248510385982</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>434</v>
@@ -1497,19 +1497,19 @@
         <v>402752</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>375264</v>
+        <v>375022</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>432321</v>
+        <v>431805</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4443647215026154</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4140363628065385</v>
+        <v>0.4137696083401428</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4769883331550724</v>
+        <v>0.4764191762006775</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>5178</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1270</v>
+        <v>1777</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14290</v>
+        <v>14365</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01097852911304034</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002692434636782532</v>
+        <v>0.003768253334676076</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03030061341894054</v>
+        <v>0.03045860970104008</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4214</v>
+        <v>4669</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007073844929588198</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02247295552247459</v>
+        <v>0.02490281352556441</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1643,19 +1643,19 @@
         <v>6504</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2223</v>
+        <v>2618</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15060</v>
+        <v>14420</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009867760358556549</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003372131569900037</v>
+        <v>0.003972100502943396</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02284922948327689</v>
+        <v>0.0218784294282982</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>13917</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8696</v>
+        <v>8509</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22458</v>
+        <v>21206</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02951030794333397</v>
+        <v>0.02951030794333396</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01843793025723406</v>
+        <v>0.01804152042165409</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04761943350413619</v>
+        <v>0.04496588715726044</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1693,19 +1693,19 @@
         <v>6710</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3346</v>
+        <v>3221</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11979</v>
+        <v>11673</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03578528433825597</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0178453199842454</v>
+        <v>0.01718095759941826</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06388957084238797</v>
+        <v>0.06225797715763224</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -1714,19 +1714,19 @@
         <v>20627</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14008</v>
+        <v>14310</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30196</v>
+        <v>31462</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03129535569294235</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02125301113472429</v>
+        <v>0.0217115932151757</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04581309161153155</v>
+        <v>0.04773347093671224</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>37405</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27173</v>
+        <v>27368</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48479</v>
+        <v>48814</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.07931320746375242</v>
+        <v>0.07931320746375241</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05761786147559775</v>
+        <v>0.05802972283003516</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1027943764478831</v>
+        <v>0.1035039751243257</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -1764,19 +1764,19 @@
         <v>22889</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16546</v>
+        <v>16367</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30584</v>
+        <v>31867</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1220787072282571</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08824426121161051</v>
+        <v>0.08729201970711796</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1631175431358129</v>
+        <v>0.1699614404487514</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>85</v>
@@ -1785,19 +1785,19 @@
         <v>60294</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>49322</v>
+        <v>48697</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>77143</v>
+        <v>74701</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09147874472016089</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07483178842022613</v>
+        <v>0.07388234036674296</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1170411393497052</v>
+        <v>0.1133365661311294</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>224924</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>203170</v>
+        <v>202733</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>249513</v>
+        <v>247597</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4769257582844515</v>
+        <v>0.4769257582844514</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4307998747045877</v>
+        <v>0.4298721221643443</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5290647101040924</v>
+        <v>0.525001035244104</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>149</v>
@@ -1835,19 +1835,19 @@
         <v>90732</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78503</v>
+        <v>79201</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101390</v>
+        <v>101898</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4839142606259975</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4186882380405925</v>
+        <v>0.4224117773610868</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.540756962611987</v>
+        <v>0.543464631451384</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>393</v>
@@ -1856,19 +1856,19 @@
         <v>315656</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>288549</v>
+        <v>292653</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>341491</v>
+        <v>341400</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4789137833530406</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4377868556630285</v>
+        <v>0.4440125813369583</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5181103514043934</v>
+        <v>0.5179719886613193</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>190188</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>167533</v>
+        <v>167245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>213108</v>
+        <v>210859</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4032721971954218</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3552343229265962</v>
+        <v>0.3546250346975856</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4518708877242136</v>
+        <v>0.4471034430495742</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>88</v>
@@ -1906,19 +1906,19 @@
         <v>65839</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>54404</v>
+        <v>54691</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>77654</v>
+        <v>77319</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3511479028779012</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2901584169592778</v>
+        <v>0.2916921964762375</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4141610030383341</v>
+        <v>0.4123752405094413</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>264</v>
@@ -1927,19 +1927,19 @@
         <v>256027</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>230561</v>
+        <v>230789</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>283228</v>
+        <v>280744</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3884443558752997</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3498067989801422</v>
+        <v>0.3501524288288552</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4297132608324666</v>
+        <v>0.4259440257478411</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>15833</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9067</v>
+        <v>8787</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25436</v>
+        <v>25146</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0140087137865001</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008022154462802883</v>
+        <v>0.007774286591370203</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02250486201853775</v>
+        <v>0.02224836269520393</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2052,19 +2052,19 @@
         <v>9817</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5151</v>
+        <v>5332</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18712</v>
+        <v>18399</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01143845487145682</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006001040723597804</v>
+        <v>0.006212337738050685</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02180189469756034</v>
+        <v>0.02143688816601464</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2073,19 +2073,19 @@
         <v>25651</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16041</v>
+        <v>16778</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36125</v>
+        <v>37780</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.01289934563537197</v>
+        <v>0.01289934563537198</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008066630870162891</v>
+        <v>0.008437323987435033</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01816649457728893</v>
+        <v>0.01899909251950638</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>35496</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25702</v>
+        <v>25198</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47784</v>
+        <v>48588</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03140533269966351</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02273982231279954</v>
+        <v>0.0222938282597363</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04227752990324115</v>
+        <v>0.04298853602337107</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>47</v>
@@ -2123,19 +2123,19 @@
         <v>31720</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23024</v>
+        <v>23556</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>41856</v>
+        <v>41689</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03695756226349573</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02682512366852509</v>
+        <v>0.02744591464579408</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04876703078220779</v>
+        <v>0.04857244841498454</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>87</v>
@@ -2144,19 +2144,19 @@
         <v>67216</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>54021</v>
+        <v>53322</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>83164</v>
+        <v>82845</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.03380177089887262</v>
+        <v>0.03380177089887261</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02716637978413832</v>
+        <v>0.02681478523226597</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04182169831284342</v>
+        <v>0.04166144412796929</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>109393</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>90594</v>
+        <v>90835</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>132226</v>
+        <v>131991</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09678684992498925</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08015429198602496</v>
+        <v>0.08036742826305426</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1169889951117072</v>
+        <v>0.1167804409138017</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>114</v>
@@ -2194,19 +2194,19 @@
         <v>72242</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>58643</v>
+        <v>60763</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>85646</v>
+        <v>86413</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.08417054834919638</v>
+        <v>0.08417054834919639</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06832592893247465</v>
+        <v>0.07079551966014699</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09978783860713784</v>
+        <v>0.1006814014407545</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>235</v>
@@ -2215,19 +2215,19 @@
         <v>181635</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>159283</v>
+        <v>160674</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>208268</v>
+        <v>208613</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09134143620760254</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08010099291600274</v>
+        <v>0.08080009360410716</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1047344707820582</v>
+        <v>0.1049082290427651</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>543317</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>506410</v>
+        <v>507700</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>580090</v>
+        <v>579795</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4807064962104978</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4480521951496814</v>
+        <v>0.4491937227684262</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5132420468981714</v>
+        <v>0.512980983712733</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>669</v>
@@ -2265,19 +2265,19 @@
         <v>436945</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>410668</v>
+        <v>411212</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>458858</v>
+        <v>462557</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.509090647658097</v>
+        <v>0.5090906476580971</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4784754243573511</v>
+        <v>0.4791087554357596</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5346223645788613</v>
+        <v>0.5389311655688807</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1234</v>
@@ -2286,19 +2286,19 @@
         <v>980262</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>934327</v>
+        <v>934176</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1024543</v>
+        <v>1026841</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4929575863354914</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4698578428050335</v>
+        <v>0.4697817872019251</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5152260098725627</v>
+        <v>0.5163815116099555</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>426208</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>391444</v>
+        <v>392716</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>468340</v>
+        <v>460090</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3770926073783494</v>
+        <v>0.3770926073783495</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3463346341385709</v>
+        <v>0.3474605931409277</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4143692133339086</v>
+        <v>0.4070704265507276</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>383</v>
@@ -2336,19 +2336,19 @@
         <v>307560</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>283556</v>
+        <v>282106</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>333099</v>
+        <v>332491</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.358342786857754</v>
+        <v>0.3583427868577541</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3303749856899703</v>
+        <v>0.3286854152756693</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3880988549949697</v>
+        <v>0.3873895523228919</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>758</v>
@@ -2357,19 +2357,19 @@
         <v>733768</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>689086</v>
+        <v>690404</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>783302</v>
+        <v>778849</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3689998609226615</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3465300075134558</v>
+        <v>0.3471929791808876</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3939099055251374</v>
+        <v>0.3916701979590397</v>
       </c>
     </row>
     <row r="27">
@@ -2464,16 +2464,16 @@
         <v>5676</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19291</v>
+        <v>19623</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.01936249724712494</v>
+        <v>0.01936249724712493</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01001028080095548</v>
+        <v>0.01001069658217573</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03402400772497882</v>
+        <v>0.03460969239346815</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>30</v>
@@ -2482,19 +2482,19 @@
         <v>21253</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>13539</v>
+        <v>14620</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>35032</v>
+        <v>35645</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02562405355090332</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01632320245260732</v>
+        <v>0.01762669706332781</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04223668812336546</v>
+        <v>0.04297634644337801</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>41</v>
@@ -2503,19 +2503,19 @@
         <v>32231</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>23002</v>
+        <v>23305</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>45987</v>
+        <v>47123</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02308167538208607</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01647269511976945</v>
+        <v>0.01668919253712803</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03293281638403812</v>
+        <v>0.03374638502495975</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>27349</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18925</v>
+        <v>19180</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38716</v>
+        <v>39953</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04823639702552868</v>
+        <v>0.04823639702552867</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03337945426956382</v>
+        <v>0.03382783768253837</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06828532766026249</v>
+        <v>0.07046622191076998</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>98</v>
@@ -2553,19 +2553,19 @@
         <v>61338</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>51053</v>
+        <v>50357</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>74656</v>
+        <v>75173</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07395372521718886</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06155308878571456</v>
+        <v>0.06071356170317688</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09001026752862672</v>
+        <v>0.09063375539956953</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>131</v>
@@ -2574,19 +2574,19 @@
         <v>88687</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>73055</v>
+        <v>74421</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>106228</v>
+        <v>104947</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06351172476510773</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05231698540870101</v>
+        <v>0.05329517558947199</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07607333778016123</v>
+        <v>0.07515564805405067</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>83868</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>67405</v>
+        <v>68353</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>104609</v>
+        <v>104897</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1479214946185482</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1188852213365656</v>
+        <v>0.1205571493508798</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1845031295291046</v>
+        <v>0.1850121132898903</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>215</v>
@@ -2624,19 +2624,19 @@
         <v>127563</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>111206</v>
+        <v>112935</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>143828</v>
+        <v>145440</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1537984545505119</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1340772902107862</v>
+        <v>0.1361619304580031</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1734097290874975</v>
+        <v>0.175352342837332</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>305</v>
@@ -2645,19 +2645,19 @@
         <v>211431</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>188734</v>
+        <v>188458</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>238418</v>
+        <v>237315</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1514122339521246</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1351584621297183</v>
+        <v>0.134960835264677</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.17073845144349</v>
+        <v>0.1699491622987266</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>253741</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>229206</v>
+        <v>228673</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>280224</v>
+        <v>280264</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.447533686043767</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4042612603102226</v>
+        <v>0.4033198175255817</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.49424348101799</v>
+        <v>0.4943131101450162</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>628</v>
@@ -2695,19 +2695,19 @@
         <v>390736</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>368270</v>
+        <v>368784</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>417028</v>
+        <v>413676</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4710993729670584</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4440119928887329</v>
+        <v>0.4446315799615123</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5027981226657539</v>
+        <v>0.4987564867450624</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>878</v>
@@ -2716,19 +2716,19 @@
         <v>644478</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>609413</v>
+        <v>609956</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>678636</v>
+        <v>677804</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.4615310028909472</v>
+        <v>0.4615310028909473</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4364198156335802</v>
+        <v>0.4368090804064747</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4859927838960356</v>
+        <v>0.4853973158790134</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>191040</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>165420</v>
+        <v>168442</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>217483</v>
+        <v>216942</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3369459250650312</v>
+        <v>0.3369459250650311</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2917583419030656</v>
+        <v>0.2970881541675998</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3835839810423352</v>
+        <v>0.3826301318597304</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>316</v>
@@ -2766,19 +2766,19 @@
         <v>228524</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>205641</v>
+        <v>207540</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>251850</v>
+        <v>251668</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2755243937143375</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2479354182965147</v>
+        <v>0.2502248691230821</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3036485065864355</v>
+        <v>0.303428907235368</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>478</v>
@@ -2787,19 +2787,19 @@
         <v>419564</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>386808</v>
+        <v>386079</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>454489</v>
+        <v>453518</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3004633630097344</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2770057893779098</v>
+        <v>0.2764835456672445</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3254738720697788</v>
+        <v>0.3247789752542966</v>
       </c>
     </row>
     <row r="33">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5838</v>
+        <v>5238</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.006215793130263276</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02460805138192433</v>
+        <v>0.02208188398163798</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>16</v>
@@ -2912,19 +2912,19 @@
         <v>11676</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6522</v>
+        <v>6523</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20959</v>
+        <v>20347</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01390094273014767</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.007765028597937539</v>
+        <v>0.007765739982509208</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02495287836958637</v>
+        <v>0.02422410160168395</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>18</v>
@@ -2933,19 +2933,19 @@
         <v>13150</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7822</v>
+        <v>7530</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>22541</v>
+        <v>22608</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.01220841812416171</v>
+        <v>0.01220841812416172</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.007261419441159606</v>
+        <v>0.006990258851750075</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02092620740888659</v>
+        <v>0.02098853416357941</v>
       </c>
     </row>
     <row r="35">
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8164</v>
+        <v>9017</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.008563108647865294</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03441419508600665</v>
+        <v>0.03800999334057095</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>64</v>
@@ -2983,19 +2983,19 @@
         <v>39364</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>29944</v>
+        <v>30896</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>50437</v>
+        <v>49617</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04686518624731561</v>
+        <v>0.04686518624731562</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03565021636598629</v>
+        <v>0.03678410843970185</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06004856112455004</v>
+        <v>0.05907165296215352</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>66</v>
@@ -3004,19 +3004,19 @@
         <v>41395</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30954</v>
+        <v>32451</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>52241</v>
+        <v>53447</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0384297995375464</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02873682701303016</v>
+        <v>0.03012646877371397</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04849880480134027</v>
+        <v>0.04961827856078781</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>11653</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5744</v>
+        <v>5987</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23123</v>
+        <v>23579</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0491214171068219</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02421248438671999</v>
+        <v>0.0252356393082585</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09747059068418538</v>
+        <v>0.09939537443297124</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>221</v>
@@ -3054,19 +3054,19 @@
         <v>141205</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>124566</v>
+        <v>121777</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>163511</v>
+        <v>161996</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1681131200211365</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1483034352850155</v>
+        <v>0.1449836410420536</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1946704910913128</v>
+        <v>0.1928660513766605</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>231</v>
@@ -3075,19 +3075,19 @@
         <v>152858</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>132191</v>
+        <v>132052</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>174923</v>
+        <v>176601</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1419072039913851</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1227210862165865</v>
+        <v>0.1225919352680936</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1623917125912281</v>
+        <v>0.1639493683836357</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>80945</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>58187</v>
+        <v>59014</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>105917</v>
+        <v>103527</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3412113292498632</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2452780403120922</v>
+        <v>0.2487663423937106</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4464785151777499</v>
+        <v>0.4364036983440274</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>526</v>
@@ -3125,19 +3125,19 @@
         <v>363698</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>335822</v>
+        <v>335876</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>390157</v>
+        <v>395501</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.4330056756641981</v>
+        <v>0.433005675664198</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3998175195652629</v>
+        <v>0.3998812277244242</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4645067145262852</v>
+        <v>0.4708691107314021</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>565</v>
@@ -3146,19 +3146,19 @@
         <v>444643</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>406798</v>
+        <v>407733</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>480457</v>
+        <v>479301</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4127895187791066</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3776562011214245</v>
+        <v>0.3785241840014406</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4460377598295475</v>
+        <v>0.4449649937021417</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>141124</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>115640</v>
+        <v>117231</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>164865</v>
+        <v>164020</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.5948883518651863</v>
+        <v>0.5948883518651864</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4874623421097569</v>
+        <v>0.4941706025371136</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6949636425391746</v>
+        <v>0.6914038604696311</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>327</v>
@@ -3196,19 +3196,19 @@
         <v>283996</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>260901</v>
+        <v>255544</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>312047</v>
+        <v>311711</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3381150753372023</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3106194770401325</v>
+        <v>0.3042415003848168</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3715109377522278</v>
+        <v>0.3711110090400653</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>386</v>
@@ -3217,19 +3217,19 @@
         <v>425120</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>387442</v>
+        <v>385645</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>463895</v>
+        <v>461618</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.3946650595678001</v>
+        <v>0.3946650595678</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3596865249589633</v>
+        <v>0.3580182689338939</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4306620802625442</v>
+        <v>0.4285487856295477</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>42262</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>29944</v>
+        <v>29790</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>58316</v>
+        <v>58092</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01228570868182639</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008704801924269787</v>
+        <v>0.008660015789338402</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01695282012413842</v>
+        <v>0.01688763282746088</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>68</v>
@@ -3342,19 +3342,19 @@
         <v>49283</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>37066</v>
+        <v>38546</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>65742</v>
+        <v>64599</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0135890622564077</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01022041311160405</v>
+        <v>0.01062829452602825</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01812718294347629</v>
+        <v>0.01781213387419369</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>107</v>
@@ -3363,19 +3363,19 @@
         <v>91545</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>73199</v>
+        <v>73685</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>114111</v>
+        <v>114716</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.0129546116878788</v>
+        <v>0.01295461168787881</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01035852870067981</v>
+        <v>0.01042726496731344</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01614800353526618</v>
+        <v>0.01623361320168957</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>98709</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>81382</v>
+        <v>80806</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>119248</v>
+        <v>120237</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02869548549810623</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02365837148056027</v>
+        <v>0.02349074982417068</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03466623523880718</v>
+        <v>0.03495376883010571</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>246</v>
@@ -3413,19 +3413,19 @@
         <v>159183</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>141453</v>
+        <v>138963</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>180117</v>
+        <v>183026</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0438920635774943</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0390033455761707</v>
+        <v>0.03831677030409798</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04966425522920429</v>
+        <v>0.05046631992083164</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>359</v>
@@ -3434,19 +3434,19 @@
         <v>257892</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>230339</v>
+        <v>229945</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>290172</v>
+        <v>287072</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03649462531500382</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0325955738147319</v>
+        <v>0.03253976446675659</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04106256002588022</v>
+        <v>0.04062390262030006</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>298201</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>265065</v>
+        <v>264795</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>331916</v>
+        <v>333785</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.08668908413479305</v>
+        <v>0.08668908413479307</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07705620247567821</v>
+        <v>0.07697767707519591</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09649025790700562</v>
+        <v>0.09703352107065268</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>672</v>
@@ -3484,19 +3484,19 @@
         <v>421584</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>392984</v>
+        <v>392531</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>459027</v>
+        <v>455319</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.1162447987598487</v>
+        <v>0.1162447987598488</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1083589340772502</v>
+        <v>0.1082341013173444</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1265692855092874</v>
+        <v>0.1255468507459606</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1002</v>
@@ -3505,19 +3505,19 @@
         <v>719785</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>671043</v>
+        <v>672929</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>767340</v>
+        <v>767362</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.1018575746689736</v>
+        <v>0.1018575746689737</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09496013136513336</v>
+        <v>0.09522692129189594</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1085871537256866</v>
+        <v>0.1085902686420444</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>1569126</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1504089</v>
+        <v>1507100</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1634939</v>
+        <v>1633204</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.4561555703258216</v>
+        <v>0.4561555703258217</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4372488227297356</v>
+        <v>0.4381241719031311</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4752876300046064</v>
+        <v>0.4747833102153022</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2598</v>
@@ -3555,19 +3555,19 @@
         <v>1709880</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1652641</v>
+        <v>1659343</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1763931</v>
+        <v>1761413</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.4714714113933658</v>
+        <v>0.4714714113933659</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.4556886452148374</v>
+        <v>0.4575366511580466</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4863750531561143</v>
+        <v>0.4856808056946413</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>4194</v>
@@ -3576,19 +3576,19 @@
         <v>3279006</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>3193731</v>
+        <v>3188121</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>3369744</v>
+        <v>3364465</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.4640159179169136</v>
+        <v>0.4640159179169137</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4519485518230092</v>
+        <v>0.4511546613851167</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4768563022053706</v>
+        <v>0.4761092674496928</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>1431595</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1367529</v>
+        <v>1369104</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1500037</v>
+        <v>1495747</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.4161741513594527</v>
+        <v>0.4161741513594526</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3975497576566282</v>
+        <v>0.3980077485245201</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4360709679497575</v>
+        <v>0.4348237195738782</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1647</v>
@@ -3626,19 +3626,19 @@
         <v>1286759</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1236682</v>
+        <v>1239048</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1343445</v>
+        <v>1338204</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.3548026640128834</v>
+        <v>0.3548026640128835</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3409948981153869</v>
+        <v>0.3416471930470066</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3704329501941171</v>
+        <v>0.3689878222202484</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2866</v>
@@ -3647,19 +3647,19 @@
         <v>2718353</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2634976</v>
+        <v>2635052</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2803681</v>
+        <v>2812005</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.3846772704112301</v>
+        <v>0.3846772704112302</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3728784601034162</v>
+        <v>0.3728891684614966</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3967521151742245</v>
+        <v>0.3979300927109047</v>
       </c>
     </row>
     <row r="45">
